--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\AIC\ServiceTitanAPI\ServiceTitanAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB468A-288D-40B1-B489-0DC9627CB4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E298234-4849-4EF9-B9C2-C938784EEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37260" yWindow="5160" windowWidth="13830" windowHeight="7170" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
+    <workbookView xWindow="37695" yWindow="5595" windowWidth="13830" windowHeight="7170" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,8 +547,8 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -561,8 +561,8 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -589,8 +589,8 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\AIC\ServiceTitanAPI\ServiceTitanAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E298234-4849-4EF9-B9C2-C938784EEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA7432-2D1E-49CB-990F-B9C9F70FC1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37695" yWindow="5595" windowWidth="13830" windowHeight="7170" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,75 +35,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Where</t>
-  </si>
-  <si>
-    <t>Add Call History</t>
-  </si>
-  <si>
-    <t>Get Contact stuff</t>
-  </si>
-  <si>
-    <t>Edit contact stuff</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Get contact info</t>
-  </si>
-  <si>
-    <t>Get modified last locations</t>
-  </si>
-  <si>
-    <t>Get locations</t>
-  </si>
-  <si>
-    <t>Get sales task</t>
-  </si>
-  <si>
-    <t>Get equitment</t>
-  </si>
-  <si>
-    <t>Get notes</t>
-  </si>
-  <si>
-    <t>Get appointments</t>
-  </si>
-  <si>
-    <t>Check if contact stuff is synced</t>
-  </si>
-  <si>
-    <t>check if oppertunities are synced</t>
-  </si>
-  <si>
-    <t>Check if call history are synced</t>
-  </si>
-  <si>
-    <t>Check if notes are synced</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Days Left</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Contact ST team about API</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Oppertunities</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Finish ServiceTitan bot</t>
+  </si>
+  <si>
+    <t>Finish Close bot</t>
+  </si>
+  <si>
+    <t>Add notes</t>
+  </si>
+  <si>
+    <t>Add opertunities</t>
+  </si>
+  <si>
+    <t>Finish integration</t>
+  </si>
+  <si>
+    <t>Don't replicate R/S information</t>
+  </si>
+  <si>
+    <t>Only do contacts after X date</t>
+  </si>
+  <si>
+    <t>Auto update what date to do stuff after</t>
+  </si>
+  <si>
+    <t>Where to host</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Host it</t>
+  </si>
+  <si>
+    <t>Test in ST integration enviroment</t>
+  </si>
+  <si>
+    <t>Make all test cases</t>
+  </si>
+  <si>
+    <t>Make testing software</t>
+  </si>
+  <si>
+    <t>Test in production enviroment</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Launch it</t>
+  </si>
+  <si>
+    <t>Making bugs / problems form</t>
+  </si>
+  <si>
+    <t>Tell team about it</t>
+  </si>
+  <si>
+    <t>Distribute bugs / problems form link</t>
+  </si>
+  <si>
+    <t>Message ST on how to</t>
+  </si>
+  <si>
+    <t>Implement</t>
   </si>
 </sst>
 </file>
@@ -120,50 +144,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -171,40 +182,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,194 +517,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE85341-DF05-484C-A1BD-4B1EBDF5F063}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7">
+        <f>MAX(D3:D5)</f>
+        <v>44758</v>
+      </c>
+      <c r="E2" s="8">
+        <f ca="1">D2-TODAY()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <f>AVERAGE(F3:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44758</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E35" ca="1" si="0">D3-TODAY()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D4" s="1">
+        <v>44758</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44758</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <f>MAX(D7:D9)</f>
+        <v>44761</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F6" s="9">
+        <f>AVERAGE(F7:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44761</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44761</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44761</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <f>MAX(D11:D12)</f>
+        <v>44762</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <f>AVERAGE(F11:F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44762</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44762</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
+        <f>MAX(D14:D22)</f>
+        <v>44765</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="9">
+        <f>AVERAGE(F14:F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44764</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <f>AVERAGE(F15:F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44758</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D14</f>
+        <v>44764</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44764</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1">D17-TODAY()</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44764</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44764</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
+        <f>MAX(D24:D30)</f>
+        <v>44772</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="9">
+        <f>AVERAGE(F24:F30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44768</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D25</f>
+        <v>44768</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44770</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D27</f>
+        <v>44770</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D29" s="1">
+        <v>44772</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D29</f>
+        <v>44772</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <f>MAX(D32:D35)</f>
+        <v>44774</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F31" s="9">
+        <f>AVERAGE(F32:F35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44773</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44773</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\AIC\ServiceTitanAPI\ServiceTitanAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA7432-2D1E-49CB-990F-B9C9F70FC1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADFF83-132F-426E-8044-FC13659EE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Implement</t>
+  </si>
+  <si>
+    <t>If doesn't work, try modified filter on EVERY API call (notes, jobs, etc)</t>
   </si>
 </sst>
 </file>
@@ -517,17 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE85341-DF05-484C-A1BD-4B1EBDF5F063}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="3.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -575,7 +578,7 @@
         <v>44758</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E35" ca="1" si="0">D3-TODAY()</f>
+        <f t="shared" ref="E3:E36" ca="1" si="0">D3-TODAY()</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -732,7 +735,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7">
-        <f>MAX(D14:D22)</f>
+        <f>MAX(D14:D23)</f>
         <v>44765</v>
       </c>
       <c r="E13" s="8">
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="9">
-        <f>AVERAGE(F14:F22)</f>
+        <f>AVERAGE(F14:F23)</f>
         <v>0</v>
       </c>
     </row>
@@ -756,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <f>AVERAGE(F15:F16)</f>
+        <f>AVERAGE(F15:F17)</f>
         <v>0</v>
       </c>
     </row>
@@ -792,14 +795,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="1">
+        <f>D14</f>
         <v>44764</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1">D17-TODAY()</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="F17" s="3">
@@ -808,13 +812,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>44764</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">D18-TODAY()</f>
         <v>6</v>
       </c>
       <c r="F18" s="3">
@@ -823,7 +827,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>44764</v>
@@ -838,14 +842,14 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -853,7 +857,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
         <v>44765</v>
@@ -868,7 +872,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>44765</v>
@@ -882,49 +886,49 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
-        <f>MAX(D24:D30)</f>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <f>MAX(D25:D31)</f>
         <v>44772</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="F23" s="9">
-        <f>AVERAGE(F24:F30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44765</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
+        <f>AVERAGE(F25:F31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1">
-        <v>44768</v>
+        <v>44765</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -932,10 +936,9 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <f>D25</f>
         <v>44768</v>
       </c>
       <c r="E26" s="2">
@@ -948,14 +951,15 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>44770</v>
+        <f>D26</f>
+        <v>44768</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -963,10 +967,9 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
-        <f>D27</f>
         <v>44770</v>
       </c>
       <c r="E28" s="2">
@@ -979,14 +982,15 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>44772</v>
+        <f>D28</f>
+        <v>44770</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -994,57 +998,57 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44772</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1">
-        <f>D29</f>
+      <c r="D31" s="1">
+        <f>D30</f>
         <v>44772</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7">
-        <f>MAX(D32:D35)</f>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7">
+        <f>MAX(D33:D36)</f>
         <v>44774</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="F31" s="9">
-        <f>AVERAGE(F32:F35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1">
-        <v>44773</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="9">
+        <f>AVERAGE(F33:F36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
         <v>44773</v>
@@ -1059,14 +1063,14 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1074,7 +1078,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1">
         <v>44774</v>
@@ -1084,6 +1088,21 @@
         <v>16</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>

--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\AIC\ServiceTitanAPI\ServiceTitanAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADFF83-132F-426E-8044-FC13659EE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4EBB7-649B-4CFF-83A0-8288D3876373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="F2" s="9">
         <f>AVERAGE(F3:F5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
       </c>
       <c r="F13" s="9">
         <f>AVERAGE(F14:F23)</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
       </c>
       <c r="F14" s="3">
         <f>AVERAGE(F15:F17)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">

--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\AIC\ServiceTitanAPI\ServiceTitanAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4EBB7-649B-4CFF-83A0-8288D3876373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD15A1B0-B19E-4BAE-8FA7-200FA0E38CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4974B703-EC10-411C-8A0F-A6034BFFC4B2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Item</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>If doesn't work, try modified filter on EVERY API call (notes, jobs, etc)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,13 +201,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE85341-DF05-484C-A1BD-4B1EBDF5F063}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,36 +541,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
         <f>MAX(D3:D5)</f>
         <v>44758</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f ca="1">D2-TODAY()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="8">
         <f>AVERAGE(F3:F5)</f>
         <v>1</v>
       </c>
@@ -579,7 +584,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E36" ca="1" si="0">D3-TODAY()</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -594,7 +599,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -609,29 +614,29 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <f>MAX(D7:D9)</f>
         <v>44761</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <f>AVERAGE(F7:F9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -643,10 +648,10 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,10 +663,10 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -673,29 +678,29 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <f>MAX(D11:D12)</f>
         <v>44762</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
         <f>AVERAGE(F11:F12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,10 +712,10 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,29 +727,29 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
         <f>MAX(D14:D23)</f>
         <v>44765</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
         <f>AVERAGE(F14:F23)</f>
-        <v>0.13333333333333333</v>
+        <v>0.43333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,7 +761,7 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE(F15:F17)</f>
@@ -772,7 +777,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -788,7 +793,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -804,7 +809,7 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -819,10 +824,10 @@
       </c>
       <c r="E18" s="2">
         <f ca="1">D18-TODAY()</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -834,10 +839,10 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -849,10 +854,10 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,7 +869,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -879,7 +884,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -894,27 +899,27 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6">
         <f>MAX(D25:D31)</f>
         <v>44772</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F24" s="8">
         <f>AVERAGE(F25:F31)</f>
         <v>0</v>
       </c>
@@ -928,7 +933,7 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -943,7 +948,7 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -959,7 +964,7 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -974,7 +979,7 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -990,7 +995,7 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1005,7 +1010,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1021,27 +1026,27 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6">
         <f>MAX(D33:D36)</f>
         <v>44774</v>
       </c>
-      <c r="E32" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F32" s="8">
         <f>AVERAGE(F33:F36)</f>
         <v>0</v>
       </c>
@@ -1055,7 +1060,7 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1070,7 +1075,7 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1085,7 +1090,7 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1100,16 +1105,35 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="11">
+        <f>AVERAGE(F32,F24,F14,F10,F6,F2)</f>
+        <v>0.47222222222222215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F2:F36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
